--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Cd200r1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.69852027040849</v>
+        <v>70.0507755</v>
       </c>
       <c r="H2">
-        <v>69.69852027040849</v>
+        <v>140.101551</v>
       </c>
       <c r="I2">
-        <v>0.4998145499529841</v>
+        <v>0.485408695871283</v>
       </c>
       <c r="J2">
-        <v>0.4998145499529841</v>
+        <v>0.4148906539949664</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.3895042910406</v>
+        <v>15.53304966666667</v>
       </c>
       <c r="N2">
-        <v>15.3895042910406</v>
+        <v>46.599149</v>
       </c>
       <c r="O2">
-        <v>0.607110414100884</v>
+        <v>0.5918754867343928</v>
       </c>
       <c r="P2">
-        <v>0.607110414100884</v>
+        <v>0.5918754867343928</v>
       </c>
       <c r="Q2">
-        <v>1072.625676780632</v>
+        <v>1088.102175030016</v>
       </c>
       <c r="R2">
-        <v>1072.625676780632</v>
+        <v>6528.613050180099</v>
       </c>
       <c r="S2">
-        <v>0.3034426183956031</v>
+        <v>0.2873015081339225</v>
       </c>
       <c r="T2">
-        <v>0.3034426183956031</v>
+        <v>0.2455636077748213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.69852027040849</v>
+        <v>70.0507755</v>
       </c>
       <c r="H3">
-        <v>69.69852027040849</v>
+        <v>140.101551</v>
       </c>
       <c r="I3">
-        <v>0.4998145499529841</v>
+        <v>0.485408695871283</v>
       </c>
       <c r="J3">
-        <v>0.4998145499529841</v>
+        <v>0.4148906539949664</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.95926906813837</v>
+        <v>10.71072966666667</v>
       </c>
       <c r="N3">
-        <v>9.95926906813837</v>
+        <v>32.132189</v>
       </c>
       <c r="O3">
-        <v>0.392889585899116</v>
+        <v>0.4081245132656072</v>
       </c>
       <c r="P3">
-        <v>0.392889585899116</v>
+        <v>0.4081245132656072</v>
       </c>
       <c r="Q3">
-        <v>694.1463170240945</v>
+        <v>750.2949193208566</v>
       </c>
       <c r="R3">
-        <v>694.1463170240945</v>
+        <v>4501.76951592514</v>
       </c>
       <c r="S3">
-        <v>0.196371931557381</v>
+        <v>0.1981071877373605</v>
       </c>
       <c r="T3">
-        <v>0.196371931557381</v>
+        <v>0.1693270462201451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.998552908682015</v>
+        <v>0.7450486666666666</v>
       </c>
       <c r="H4">
-        <v>0.998552908682015</v>
+        <v>2.235146</v>
       </c>
       <c r="I4">
-        <v>0.007160715474601559</v>
+        <v>0.005162728022151658</v>
       </c>
       <c r="J4">
-        <v>0.007160715474601559</v>
+        <v>0.006619064379338907</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.3895042910406</v>
+        <v>15.53304966666667</v>
       </c>
       <c r="N4">
-        <v>15.3895042910406</v>
+        <v>46.599149</v>
       </c>
       <c r="O4">
-        <v>0.607110414100884</v>
+        <v>0.5918754867343928</v>
       </c>
       <c r="P4">
-        <v>0.607110414100884</v>
+        <v>0.5918754867343928</v>
       </c>
       <c r="Q4">
-        <v>15.36723427299294</v>
+        <v>11.57287794341711</v>
       </c>
       <c r="R4">
-        <v>15.36723427299294</v>
+        <v>104.155901490754</v>
       </c>
       <c r="S4">
-        <v>0.00434734493704396</v>
+        <v>0.003055692160988302</v>
       </c>
       <c r="T4">
-        <v>0.00434734493704396</v>
+        <v>0.003917661951247497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.998552908682015</v>
+        <v>0.7450486666666666</v>
       </c>
       <c r="H5">
-        <v>0.998552908682015</v>
+        <v>2.235146</v>
       </c>
       <c r="I5">
-        <v>0.007160715474601559</v>
+        <v>0.005162728022151658</v>
       </c>
       <c r="J5">
-        <v>0.007160715474601559</v>
+        <v>0.006619064379338907</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.95926906813837</v>
+        <v>10.71072966666667</v>
       </c>
       <c r="N5">
-        <v>9.95926906813837</v>
+        <v>32.132189</v>
       </c>
       <c r="O5">
-        <v>0.392889585899116</v>
+        <v>0.4081245132656072</v>
       </c>
       <c r="P5">
-        <v>0.392889585899116</v>
+        <v>0.4081245132656072</v>
       </c>
       <c r="Q5">
-        <v>9.94485709633639</v>
+        <v>7.98001485717711</v>
       </c>
       <c r="R5">
-        <v>9.94485709633639</v>
+        <v>71.82013371459401</v>
       </c>
       <c r="S5">
-        <v>0.002813370537557599</v>
+        <v>0.002107035861163356</v>
       </c>
       <c r="T5">
-        <v>0.002813370537557599</v>
+        <v>0.00270140242809141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>43.9956846291402</v>
+        <v>0.871287</v>
       </c>
       <c r="H6">
-        <v>43.9956846291402</v>
+        <v>2.613861</v>
       </c>
       <c r="I6">
-        <v>0.315497132901445</v>
+        <v>0.006037481860562736</v>
       </c>
       <c r="J6">
-        <v>0.315497132901445</v>
+        <v>0.007740574547543281</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.3895042910406</v>
+        <v>15.53304966666667</v>
       </c>
       <c r="N6">
-        <v>15.3895042910406</v>
+        <v>46.599149</v>
       </c>
       <c r="O6">
-        <v>0.607110414100884</v>
+        <v>0.5918754867343928</v>
       </c>
       <c r="P6">
-        <v>0.607110414100884</v>
+        <v>0.5918754867343928</v>
       </c>
       <c r="Q6">
-        <v>677.0717773874221</v>
+        <v>13.533744244921</v>
       </c>
       <c r="R6">
-        <v>677.0717773874221</v>
+        <v>121.803698204289</v>
       </c>
       <c r="S6">
-        <v>0.1915415950034379</v>
+        <v>0.003573437514870637</v>
       </c>
       <c r="T6">
-        <v>0.1915415950034379</v>
+        <v>0.004581456327931032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>43.9956846291402</v>
+        <v>0.871287</v>
       </c>
       <c r="H7">
-        <v>43.9956846291402</v>
+        <v>2.613861</v>
       </c>
       <c r="I7">
-        <v>0.315497132901445</v>
+        <v>0.006037481860562736</v>
       </c>
       <c r="J7">
-        <v>0.315497132901445</v>
+        <v>0.007740574547543281</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.95926906813837</v>
+        <v>10.71072966666667</v>
       </c>
       <c r="N7">
-        <v>9.95926906813837</v>
+        <v>32.132189</v>
       </c>
       <c r="O7">
-        <v>0.392889585899116</v>
+        <v>0.4081245132656072</v>
       </c>
       <c r="P7">
-        <v>0.392889585899116</v>
+        <v>0.4081245132656072</v>
       </c>
       <c r="Q7">
-        <v>438.1648610585668</v>
+        <v>9.332119519081001</v>
       </c>
       <c r="R7">
-        <v>438.1648610585668</v>
+        <v>83.98907567172901</v>
       </c>
       <c r="S7">
-        <v>0.1239555378980071</v>
+        <v>0.002464044345692099</v>
       </c>
       <c r="T7">
-        <v>0.1239555378980071</v>
+        <v>0.003159118219612249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.7560042915617</v>
+        <v>1.056899666666667</v>
       </c>
       <c r="H8">
-        <v>24.7560042915617</v>
+        <v>3.170699</v>
       </c>
       <c r="I8">
-        <v>0.1775276016709692</v>
+        <v>0.007323663231443602</v>
       </c>
       <c r="J8">
-        <v>0.1775276016709692</v>
+        <v>0.009389570439025233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.3895042910406</v>
+        <v>15.53304966666667</v>
       </c>
       <c r="N8">
-        <v>15.3895042910406</v>
+        <v>46.599149</v>
       </c>
       <c r="O8">
-        <v>0.607110414100884</v>
+        <v>0.5918754867343928</v>
       </c>
       <c r="P8">
-        <v>0.607110414100884</v>
+        <v>0.5918754867343928</v>
       </c>
       <c r="Q8">
-        <v>380.9826342740083</v>
+        <v>16.41687501501677</v>
       </c>
       <c r="R8">
-        <v>380.9826342740083</v>
+        <v>147.751875135151</v>
       </c>
       <c r="S8">
-        <v>0.1077788557647989</v>
+        <v>0.004334696739789459</v>
       </c>
       <c r="T8">
-        <v>0.1077788557647989</v>
+        <v>0.005557456573824926</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,309 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.056899666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.170699</v>
+      </c>
+      <c r="I9">
+        <v>0.007323663231443602</v>
+      </c>
+      <c r="J9">
+        <v>0.009389570439025233</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10.71072966666667</v>
+      </c>
+      <c r="N9">
+        <v>32.132189</v>
+      </c>
+      <c r="O9">
+        <v>0.4081245132656072</v>
+      </c>
+      <c r="P9">
+        <v>0.4081245132656072</v>
+      </c>
+      <c r="Q9">
+        <v>11.32016661445678</v>
+      </c>
+      <c r="R9">
+        <v>101.881499530111</v>
+      </c>
+      <c r="S9">
+        <v>0.002988966491654144</v>
+      </c>
+      <c r="T9">
+        <v>0.003832113865200307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>46.38387733333334</v>
+      </c>
+      <c r="H10">
+        <v>139.151632</v>
+      </c>
+      <c r="I10">
+        <v>0.321411679529899</v>
+      </c>
+      <c r="J10">
+        <v>0.4120776050862342</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>15.53304966666667</v>
+      </c>
+      <c r="N10">
+        <v>46.599149</v>
+      </c>
+      <c r="O10">
+        <v>0.5918754867343928</v>
+      </c>
+      <c r="P10">
+        <v>0.5918754867343928</v>
+      </c>
+      <c r="Q10">
+        <v>720.4830703512409</v>
+      </c>
+      <c r="R10">
+        <v>6484.347633161168</v>
+      </c>
+      <c r="S10">
+        <v>0.1902356942638776</v>
+      </c>
+      <c r="T10">
+        <v>0.2438986330827578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>46.38387733333334</v>
+      </c>
+      <c r="H11">
+        <v>139.151632</v>
+      </c>
+      <c r="I11">
+        <v>0.321411679529899</v>
+      </c>
+      <c r="J11">
+        <v>0.4120776050862342</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.71072966666667</v>
+      </c>
+      <c r="N11">
+        <v>32.132189</v>
+      </c>
+      <c r="O11">
+        <v>0.4081245132656072</v>
+      </c>
+      <c r="P11">
+        <v>0.4081245132656072</v>
+      </c>
+      <c r="Q11">
+        <v>496.805171009161</v>
+      </c>
+      <c r="R11">
+        <v>4471.246539082449</v>
+      </c>
+      <c r="S11">
+        <v>0.1311759852660213</v>
+      </c>
+      <c r="T11">
+        <v>0.1681789720034765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>24.7560042915617</v>
-      </c>
-      <c r="H9">
-        <v>24.7560042915617</v>
-      </c>
-      <c r="I9">
-        <v>0.1775276016709692</v>
-      </c>
-      <c r="J9">
-        <v>0.1775276016709692</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>9.95926906813837</v>
-      </c>
-      <c r="N9">
-        <v>9.95926906813837</v>
-      </c>
-      <c r="O9">
-        <v>0.392889585899116</v>
-      </c>
-      <c r="P9">
-        <v>0.392889585899116</v>
-      </c>
-      <c r="Q9">
-        <v>246.5517077916512</v>
-      </c>
-      <c r="R9">
-        <v>246.5517077916512</v>
-      </c>
-      <c r="S9">
-        <v>0.06974874590617032</v>
-      </c>
-      <c r="T9">
-        <v>0.06974874590617032</v>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>25.205092</v>
+      </c>
+      <c r="H12">
+        <v>50.410184</v>
+      </c>
+      <c r="I12">
+        <v>0.17465575148466</v>
+      </c>
+      <c r="J12">
+        <v>0.1492825315528919</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.53304966666667</v>
+      </c>
+      <c r="N12">
+        <v>46.599149</v>
+      </c>
+      <c r="O12">
+        <v>0.5918754867343928</v>
+      </c>
+      <c r="P12">
+        <v>0.5918754867343928</v>
+      </c>
+      <c r="Q12">
+        <v>391.5119458889026</v>
+      </c>
+      <c r="R12">
+        <v>2349.071675333416</v>
+      </c>
+      <c r="S12">
+        <v>0.1033744579209443</v>
+      </c>
+      <c r="T12">
+        <v>0.08835667102381024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>25.205092</v>
+      </c>
+      <c r="H13">
+        <v>50.410184</v>
+      </c>
+      <c r="I13">
+        <v>0.17465575148466</v>
+      </c>
+      <c r="J13">
+        <v>0.1492825315528919</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.71072966666667</v>
+      </c>
+      <c r="N13">
+        <v>32.132189</v>
+      </c>
+      <c r="O13">
+        <v>0.4081245132656072</v>
+      </c>
+      <c r="P13">
+        <v>0.4081245132656072</v>
+      </c>
+      <c r="Q13">
+        <v>269.9649266354627</v>
+      </c>
+      <c r="R13">
+        <v>1619.789559812776</v>
+      </c>
+      <c r="S13">
+        <v>0.07128129356371569</v>
+      </c>
+      <c r="T13">
+        <v>0.06092586052908166</v>
       </c>
     </row>
   </sheetData>
